--- a/templates/default_values.xlsx
+++ b/templates/default_values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.barla\Documents\Local_codes\HVDCWISE_TEA.jl\studies\simple_use_case\user_interface\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.barla\Documents\Local_codes\HVDCWISE_TEA.jl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9724F6C1-0D80-433A-9E34-D15AD9AF1858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AD3722-2AC9-471D-BA02-13ACE40A2CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="585" windowWidth="15000" windowHeight="14865" tabRatio="743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16005" windowHeight="10335" tabRatio="743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="16" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="201">
   <si>
     <t>Content</t>
   </si>
@@ -678,13 +678,16 @@
   </si>
   <si>
     <t>For a voltage of 1 pu. G_MW = G_S * V_base². Usually 0.</t>
+  </si>
+  <si>
+    <t>thermal_rating</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,12 +724,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1226,10 +1223,10 @@
   <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomRight" activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,7 +2326,7 @@
         <v>45</v>
       </c>
       <c r="E66" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2378,7 +2375,7 @@
         <v>45</v>
       </c>
       <c r="E69" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2497,7 +2494,7 @@
         <v>45</v>
       </c>
       <c r="E76" s="24">
-        <v>0</v>
+        <v>0.88700000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3545,15 +3542,15 @@
         <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>185</v>
-      </c>
-      <c r="C141" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="C141" t="s">
+        <v>39</v>
+      </c>
       <c r="D141" t="s">
         <v>45</v>
       </c>
-      <c r="E141" s="24">
-        <v>1</v>
-      </c>
+      <c r="E141" s="23"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
@@ -6212,18 +6209,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xsi:nil="true"/>
-    <TaxCatchAll xmlns="e2fe3da4-e7b1-4e71-a513-56b717f56f6b" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100360305CF8A5F8A4B86568FB88F41EB51" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="7820bdd98b12bbce6701f392baa49827">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xmlns:ns3="e2fe3da4-e7b1-4e71-a513-56b717f56f6b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a7208ee71179b2cd86960a83168177e" ns2:_="" ns3:_="">
     <xsd:import namespace="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576"/>
@@ -6464,7 +6449,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6473,18 +6458,19 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C116F8E2-4DBC-4DB4-825C-1F8126BA2EE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576"/>
-    <ds:schemaRef ds:uri="e2fe3da4-e7b1-4e71-a513-56b717f56f6b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xsi:nil="true"/>
+    <TaxCatchAll xmlns="e2fe3da4-e7b1-4e71-a513-56b717f56f6b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFB0FD70-63EF-4D48-A8C4-DFC9646D4D60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6503,10 +6489,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD1144D-069D-4B6F-AEE5-711B319AB663}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C116F8E2-4DBC-4DB4-825C-1F8126BA2EE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576"/>
+    <ds:schemaRef ds:uri="e2fe3da4-e7b1-4e71-a513-56b717f56f6b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/templates/default_values.xlsx
+++ b/templates/default_values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.barla\Documents\Local_codes\HVDCWISE_TEA.jl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024C5D86-97C2-479E-BA97-8655333F5DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB6FE91-F1F6-4D02-9FF2-4934AE4EF359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1144,23 +1144,23 @@
   <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D97" sqref="D97"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>181</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>1</v>
       </c>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>1</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>1</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>1</v>
       </c>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>1</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>1</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>1</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>2</v>
       </c>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>2</v>
       </c>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>2</v>
       </c>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>2</v>
       </c>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>2</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>2</v>
       </c>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>2</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>2</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>2</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>2</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>2</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>2</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>2</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>3</v>
       </c>
@@ -1750,11 +1750,9 @@
       <c r="D36" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
@@ -1769,7 +1767,7 @@
       </c>
       <c r="E37" s="15"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>4</v>
       </c>
@@ -1784,7 +1782,7 @@
       </c>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>4</v>
       </c>
@@ -1799,7 +1797,7 @@
       </c>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>4</v>
       </c>
@@ -1816,7 +1814,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>4</v>
       </c>
@@ -1833,7 +1831,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>4</v>
       </c>
@@ -1848,7 +1846,7 @@
       </c>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>4</v>
       </c>
@@ -1865,7 +1863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>4</v>
       </c>
@@ -1882,7 +1880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>4</v>
       </c>
@@ -1899,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>4</v>
       </c>
@@ -1916,7 +1914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>4</v>
       </c>
@@ -1933,7 +1931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>4</v>
       </c>
@@ -1950,7 +1948,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>4</v>
       </c>
@@ -1967,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>4</v>
       </c>
@@ -1984,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>4</v>
       </c>
@@ -2001,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>4</v>
       </c>
@@ -2018,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>5</v>
       </c>
@@ -2033,7 +2031,7 @@
       </c>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>5</v>
       </c>
@@ -2048,7 +2046,7 @@
       </c>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>5</v>
       </c>
@@ -2082,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>5</v>
       </c>
@@ -2099,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>5</v>
       </c>
@@ -2116,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>5</v>
       </c>
@@ -2148,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>5</v>
       </c>
@@ -2165,7 +2163,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>5</v>
       </c>
@@ -2182,7 +2180,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>5</v>
       </c>
@@ -2199,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>5</v>
       </c>
@@ -2216,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>5</v>
       </c>
@@ -2233,7 +2231,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>5</v>
       </c>
@@ -2250,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>5</v>
       </c>
@@ -2267,7 +2265,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>5</v>
       </c>
@@ -2284,7 +2282,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>5</v>
       </c>
@@ -2299,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
         <v>5</v>
       </c>
@@ -2316,7 +2314,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>5</v>
       </c>
@@ -2333,7 +2331,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>5</v>
       </c>
@@ -2350,7 +2348,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
         <v>5</v>
       </c>
@@ -2367,7 +2365,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>5</v>
       </c>
@@ -2384,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>5</v>
       </c>
@@ -2401,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>5</v>
       </c>
@@ -2418,7 +2416,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>5</v>
       </c>
@@ -2435,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
         <v>5</v>
       </c>
@@ -2452,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
         <v>5</v>
       </c>
@@ -2469,7 +2467,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
         <v>5</v>
       </c>
@@ -2486,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
         <v>5</v>
       </c>
@@ -2503,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
         <v>5</v>
       </c>
@@ -2520,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>5</v>
       </c>
@@ -2535,7 +2533,7 @@
       </c>
       <c r="E83" s="16"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
         <v>5</v>
       </c>
@@ -2550,7 +2548,7 @@
       </c>
       <c r="E84" s="16"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
         <v>5</v>
       </c>
@@ -2567,7 +2565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>5</v>
       </c>
@@ -2584,7 +2582,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
         <v>5</v>
       </c>
@@ -2599,7 +2597,7 @@
       </c>
       <c r="E87" s="16"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
         <v>5</v>
       </c>
@@ -2614,7 +2612,7 @@
       </c>
       <c r="E88" s="16"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>5</v>
       </c>
@@ -2631,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>5</v>
       </c>
@@ -2648,7 +2646,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
         <v>5</v>
       </c>
@@ -2665,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>5</v>
       </c>
@@ -2682,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>188</v>
       </c>
@@ -2697,7 +2695,7 @@
       </c>
       <c r="E93" s="15"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>6</v>
       </c>
@@ -2712,7 +2710,7 @@
       </c>
       <c r="E94" s="15"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
         <v>6</v>
       </c>
@@ -2729,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
         <v>6</v>
       </c>
@@ -2746,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>6</v>
       </c>
@@ -2763,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>6</v>
       </c>
@@ -2780,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
         <v>6</v>
       </c>
@@ -2797,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
         <v>6</v>
       </c>
@@ -2814,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
         <v>6</v>
       </c>
@@ -2831,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="8" t="s">
         <v>6</v>
       </c>
@@ -2846,7 +2844,7 @@
       </c>
       <c r="E102" s="16"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="s">
         <v>6</v>
       </c>
@@ -2863,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>7</v>
       </c>
@@ -2880,7 +2878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
         <v>7</v>
       </c>
@@ -2897,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
         <v>7</v>
       </c>
@@ -2914,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
         <v>7</v>
       </c>
@@ -2931,7 +2929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
         <v>7</v>
       </c>
@@ -2946,7 +2944,7 @@
       </c>
       <c r="E108" s="16"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
         <v>7</v>
       </c>
@@ -2963,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>8</v>
       </c>
@@ -2978,7 +2976,7 @@
       </c>
       <c r="E110" s="15"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
         <v>8</v>
       </c>
@@ -2993,7 +2991,7 @@
       </c>
       <c r="E111" s="16"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
         <v>8</v>
       </c>
@@ -3010,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
         <v>8</v>
       </c>
@@ -3027,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>8</v>
       </c>
@@ -3044,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
         <v>8</v>
       </c>
@@ -3059,7 +3057,7 @@
       </c>
       <c r="E115" s="16"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="11" t="s">
         <v>8</v>
       </c>
@@ -3074,7 +3072,7 @@
       </c>
       <c r="E116" s="21"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
         <v>9</v>
       </c>
@@ -3089,7 +3087,7 @@
       </c>
       <c r="E117" s="16"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
         <v>9</v>
       </c>
@@ -3106,7 +3104,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>9</v>
       </c>
@@ -3121,7 +3119,7 @@
       </c>
       <c r="E119" s="16"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
         <v>9</v>
       </c>
@@ -3136,7 +3134,7 @@
       </c>
       <c r="E120" s="16"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
         <v>9</v>
       </c>
@@ -3153,7 +3151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
         <v>9</v>
       </c>
@@ -3170,7 +3168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
         <v>9</v>
       </c>
@@ -3187,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
         <v>9</v>
       </c>
@@ -3202,7 +3200,7 @@
       </c>
       <c r="E124" s="16"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>9</v>
       </c>
@@ -3219,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="8" t="s">
         <v>9</v>
       </c>
@@ -3236,7 +3234,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
         <v>9</v>
       </c>
@@ -3253,7 +3251,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
         <v>9</v>
       </c>
@@ -3270,7 +3268,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
         <v>9</v>
       </c>
@@ -3287,7 +3285,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
         <v>9</v>
       </c>
@@ -3304,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
         <v>9</v>
       </c>
@@ -3321,7 +3319,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
         <v>9</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>10</v>
       </c>
@@ -3353,7 +3351,7 @@
       </c>
       <c r="E133" s="15"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
         <v>10</v>
       </c>
@@ -3370,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
         <v>10</v>
       </c>
@@ -3387,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
         <v>10</v>
       </c>
@@ -3402,7 +3400,7 @@
       </c>
       <c r="E136" s="16"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
         <v>10</v>
       </c>
@@ -3417,7 +3415,7 @@
       </c>
       <c r="E137" s="16"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
         <v>10</v>
       </c>
@@ -3432,7 +3430,7 @@
       </c>
       <c r="E138" s="16"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
         <v>10</v>
       </c>
@@ -3447,7 +3445,7 @@
       </c>
       <c r="E139" s="16"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
         <v>10</v>
       </c>
@@ -3462,7 +3460,7 @@
       </c>
       <c r="E140" s="16"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
         <v>10</v>
       </c>
@@ -3477,7 +3475,7 @@
       </c>
       <c r="E141" s="16"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="8" t="s">
         <v>10</v>
       </c>
@@ -3492,7 +3490,7 @@
       </c>
       <c r="E142" s="16"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
         <v>10</v>
       </c>
@@ -3509,7 +3507,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="8" t="s">
         <v>10</v>
       </c>
@@ -3526,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
         <v>10</v>
       </c>
@@ -3543,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
         <v>10</v>
       </c>
@@ -3560,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
         <v>10</v>
       </c>
@@ -3575,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
         <v>10</v>
       </c>
@@ -3590,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="11" t="s">
         <v>10</v>
       </c>
@@ -3607,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
         <v>11</v>
       </c>
@@ -3624,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
         <v>11</v>
       </c>
@@ -3641,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
         <v>11</v>
       </c>
@@ -3658,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="11" t="s">
         <v>11</v>
       </c>
@@ -3922,15 +3920,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xsi:nil="true"/>
@@ -3940,6 +3929,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3962,14 +3960,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD1144D-069D-4B6F-AEE5-711B319AB663}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C116F8E2-4DBC-4DB4-825C-1F8126BA2EE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3978,4 +3968,12 @@
     <ds:schemaRef ds:uri="e2fe3da4-e7b1-4e71-a513-56b717f56f6b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD1144D-069D-4B6F-AEE5-711B319AB663}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/templates/default_values.xlsx
+++ b/templates/default_values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.barla\Documents\Local_codes\HVDCWISE_TEA.jl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB6FE91-F1F6-4D02-9FF2-4934AE4EF359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349AA2F7-5377-45D1-8576-83785449E661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="16" r:id="rId1"/>
@@ -42,6 +42,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={403648C6-16AF-4A51-B228-26C0092C26FD}</author>
+    <author>tc={52D79743-1A94-44FB-9C42-3A7A97FF2C44}</author>
+    <author>tc={94EA2262-7164-4A10-8920-15A8C06127BA}</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{403648C6-16AF-4A51-B228-26C0092C26FD}">
@@ -59,12 +61,30 @@
 https://electa-git.github.io/PowerModelsMCDC.jl/dev/man/network-data/</t>
       </text>
     </comment>
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{52D79743-1A94-44FB-9C42-3A7A97FF2C44}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Grey: parameter provided in the macro-scenario imput file.
+Brown: Default model in the code (see parameter description)
+Yellow: not reliable value</t>
+      </text>
+    </comment>
+    <comment ref="C36" authorId="2" shapeId="0" xr:uid="{94EA2262-7164-4A10-8920-15A8C06127BA}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    kA in the Matpower documentation</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="297">
   <si>
     <t>bus</t>
   </si>
@@ -159,18 +179,12 @@
     <t>pu</t>
   </si>
   <si>
-    <t>degrees</t>
-  </si>
-  <si>
     <t>kV</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>TBC</t>
-  </si>
-  <si>
     <t>type 1 = PQ, type 2 = PV, type 3 = reference, type 4 = isolated</t>
   </si>
   <si>
@@ -201,9 +215,6 @@
     <t>\</t>
   </si>
   <si>
-    <t>p.u.</t>
-  </si>
-  <si>
     <t>fbus</t>
   </si>
   <si>
@@ -243,9 +254,6 @@
     <t>MVA</t>
   </si>
   <si>
-    <t>deg</t>
-  </si>
-  <si>
     <t>c_rating_a</t>
   </si>
   <si>
@@ -397,9 +405,6 @@
   </si>
   <si>
     <t>Ohm</t>
-  </si>
-  <si>
-    <t>MW/p.u</t>
   </si>
   <si>
     <t>Pg</t>
@@ -544,18 +549,6 @@
     <t xml:space="preserve"> 0.1974</t>
   </si>
   <si>
-    <t xml:space="preserve">       10.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    100.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  10000.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  100000.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">      0.0</t>
   </si>
   <si>
@@ -613,12 +606,6 @@
     <t>Component</t>
   </si>
   <si>
-    <t>Specifies the configuration of the converter (1=monopolar, 2=bipolar)</t>
-  </si>
-  <si>
-    <t>At what terminal it is connected</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -641,13 +628,361 @@
   </si>
   <si>
     <t>Emission factor for CO2</t>
+  </si>
+  <si>
+    <t>Bus terminals where the converter is connected (only used if monopolar): 0=p&amp;n, 1=p&amp;r, 2=n&amp;r</t>
+  </si>
+  <si>
+    <t>Voltage droop power set-point (not yet implemented)</t>
+  </si>
+  <si>
+    <t>Voltage droop voltage set-point (not yet implemented)</t>
+  </si>
+  <si>
+    <t>Voltage droop deadband (optional) (not yet implemented)</t>
+  </si>
+  <si>
+    <t>Maximum AC active power</t>
+  </si>
+  <si>
+    <t>Minimum AC active power. Default value: -Pacmax</t>
+  </si>
+  <si>
+    <t>Maximum AC reactive power. Default value: Pacmax</t>
+  </si>
+  <si>
+    <t>Minimum AC reactive power. Default value: -Pacmax</t>
+  </si>
+  <si>
+    <t>Converter bus number (DC bus numbering)</t>
+  </si>
+  <si>
+    <t>Converter bus number (AC bus numbering)</t>
+  </si>
+  <si>
+    <t>DC bus type (1 = constant power, 2 = DC slack, 3 = DC voltage droop with DC side active power, 4 = DC voltage droop with AC side active power) (only power flow)</t>
+  </si>
+  <si>
+    <t>AC bus type (1 = PQ, 2 = PV), should be consistent with AC bus (only power flow)</t>
+  </si>
+  <si>
+    <t>Active power injected in the AC grid</t>
+  </si>
+  <si>
+    <t>Reactive power injected in the AC grid</t>
+  </si>
+  <si>
+    <t>Binary indicating LCC converter (islcc = 1 -&gt; LCC)</t>
+  </si>
+  <si>
+    <t>Target voltage of converter connected AC bus</t>
+  </si>
+  <si>
+    <t>Binary indicating converter transformer</t>
+  </si>
+  <si>
+    <t>Binary indicating converter filter</t>
+  </si>
+  <si>
+    <t>Filter susceptance (implemented ?)</t>
+  </si>
+  <si>
+    <t>Transformer reactance (implemented ?). Default: rtf * 10</t>
+  </si>
+  <si>
+    <t>Phase reactor reactance (implemented ?). Default: rc * 10</t>
+  </si>
+  <si>
+    <t>Binary indicating converter reactor</t>
+  </si>
+  <si>
+    <t>Converter AC base voltage. Default: V_dc</t>
+  </si>
+  <si>
+    <t>Maximum converter voltage magnitude</t>
+  </si>
+  <si>
+    <t>Minimumconverter voltagemagnitude</t>
+  </si>
+  <si>
+    <t>Maximum converter current </t>
+  </si>
+  <si>
+    <t>Converter status (1 = on, 0 = off) (implemented ?)</t>
+  </si>
+  <si>
+    <t>Constant loss coefficient</t>
+  </si>
+  <si>
+    <t>Linear loss coefficient</t>
+  </si>
+  <si>
+    <t>Rectifier quadratic loss coefficient</t>
+  </si>
+  <si>
+    <t>Inverter quadratic loss coefficient (implemented ?)</t>
+  </si>
+  <si>
+    <t>DC voltage droop</t>
+  </si>
+  <si>
+    <t>Configuration of the converter (1=monopolar, 2=bipolar)</t>
+  </si>
+  <si>
+    <t>0: ungrounded neutral terminal. 1: grounded neutral terminal.</t>
+  </si>
+  <si>
+    <t>Grounding impedance. Default: rc * 50</t>
+  </si>
+  <si>
+    <t>Status of the positive pole</t>
+  </si>
+  <si>
+    <t>Status of the negative pole</t>
+  </si>
+  <si>
+    <t>From bus number DC</t>
+  </si>
+  <si>
+    <t>To bus number DC</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>Inductance (not used in (optimal) power flow)</t>
+  </si>
+  <si>
+    <t>pu/s</t>
+  </si>
+  <si>
+    <t>pu*s</t>
+  </si>
+  <si>
+    <t>Total line charging capacity (not used in power flow)</t>
+  </si>
+  <si>
+    <t>MVA rating A</t>
+  </si>
+  <si>
+    <t>Initial branch status (not used)</t>
+  </si>
+  <si>
+    <t>Originally meant for modeling ground return (1) instead of metallic return (2). Not used.</t>
+  </si>
+  <si>
+    <t>Metallic return impedance. Default: r * 5</t>
+  </si>
+  <si>
+    <t>Status of the positive conductor</t>
+  </si>
+  <si>
+    <t>Status of the negative conductor</t>
+  </si>
+  <si>
+    <t>Status of the metallic return</t>
+  </si>
+  <si>
+    <t>Voltage angle</t>
+  </si>
+  <si>
+    <t>Voltage magnitude</t>
+  </si>
+  <si>
+    <t>Maximum voltage magnitude</t>
+  </si>
+  <si>
+    <t>Minimum voltage magnitude</t>
+  </si>
+  <si>
+    <t>0|1|2</t>
+  </si>
+  <si>
+    <t>1|2</t>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
+  </si>
+  <si>
+    <t>Bus number</t>
+  </si>
+  <si>
+    <t>Active power injected</t>
+  </si>
+  <si>
+    <t>Reactive power injected</t>
+  </si>
+  <si>
+    <t>Reactive power upper bound</t>
+  </si>
+  <si>
+    <t>Reactive power lower bound</t>
+  </si>
+  <si>
+    <t>Active power upper bound</t>
+  </si>
+  <si>
+    <t>Active power lower bound</t>
+  </si>
+  <si>
+    <t>Status of the generator</t>
+  </si>
+  <si>
+    <t>Active power withdrawn</t>
+  </si>
+  <si>
+    <t>Reactive power withdrawn</t>
+  </si>
+  <si>
+    <t>Amount of stored energy</t>
+  </si>
+  <si>
+    <t>Maximum amount of stored energy</t>
+  </si>
+  <si>
+    <t>Maximum amount of charge per unit time</t>
+  </si>
+  <si>
+    <t>Maximum amount of discharge per unit time</t>
+  </si>
+  <si>
+    <t>Relative efficiency when charging</t>
+  </si>
+  <si>
+    <t>Relative efficiency when discharging</t>
+  </si>
+  <si>
+    <t>Apparent power withdrawn limit</t>
+  </si>
+  <si>
+    <t>Power inverter resistance</t>
+  </si>
+  <si>
+    <t>Power inverter reactance</t>
+  </si>
+  <si>
+    <t>Active power standby losses</t>
+  </si>
+  <si>
+    <t>Reactive power standby losses</t>
+  </si>
+  <si>
+    <t>Status of the storage</t>
+  </si>
+  <si>
+    <t>To bus number</t>
+  </si>
+  <si>
+    <t>From bus number</t>
+  </si>
+  <si>
+    <t>Branch series resistance</t>
+  </si>
+  <si>
+    <t>Branch series reactance</t>
+  </si>
+  <si>
+    <t>Branch charging susceptance</t>
+  </si>
+  <si>
+    <t>Long term thermal line rating</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>Discharge of the storage which is independent from its use</t>
+  </si>
+  <si>
+    <t>Storage charging independent from the electrical production</t>
+  </si>
+  <si>
+    <t>Storage discharging independent from the electrical production</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>(not used)</t>
+  </si>
+  <si>
+    <t>Status of the branch</t>
+  </si>
+  <si>
+    <t>Minimum angle difference between the from and to buses</t>
+  </si>
+  <si>
+    <t>Maximum angle difference between the from and to buses</t>
+  </si>
+  <si>
+    <t>Base voltage magnitude (phase-to-phase, rms)</t>
+  </si>
+  <si>
+    <t>Base voltage magnitude (pole-to-ground)</t>
+  </si>
+  <si>
+    <t>MW/pu</t>
+  </si>
+  <si>
+    <t>Fixed cost when producing</t>
+  </si>
+  <si>
+    <t>Generator marginal cost</t>
+  </si>
+  <si>
+    <t>Cost of starting the generator</t>
+  </si>
+  <si>
+    <t>Cost of shutting down the generator</t>
+  </si>
+  <si>
+    <t>Degree of the polynome modelling the generation cost</t>
+  </si>
+  <si>
+    <t>Generator curtailment cost</t>
+  </si>
+  <si>
+    <t>Load number</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Cost per shifted energy</t>
+  </si>
+  <si>
+    <t>Cost of chosen load reduction</t>
+  </si>
+  <si>
+    <t>Cost of suffered load reduction</t>
+  </si>
+  <si>
+    <t>Short term thermal line rating. Default: rateA</t>
+  </si>
+  <si>
+    <t>Emergency thermal line rating. Default: rateA</t>
+  </si>
+  <si>
+    <t>MVA rating B (short term rating, not used). Default: rateA</t>
+  </si>
+  <si>
+    <t>MVA rating C (emergency rating, not used). Default: rateA</t>
+  </si>
+  <si>
+    <t>Transformer resistance (implemented ?). Default: 0.01 * baseMVA / Pacmax</t>
+  </si>
+  <si>
+    <t>Phase reactor resistance (implemented ?). Default: 0.01 * baseMVA / Pacmax</t>
+  </si>
+  <si>
+    <t>Long term current line rating. The branch power will remain &lt; c_rating [MW/pu] * bus.Vmax [pu]. Default: rateA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,8 +990,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,8 +1022,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -770,11 +1117,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -817,9 +1201,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,6 +1531,14 @@
       </x:ext>
     </extLst>
   </threadedComment>
+  <threadedComment ref="E1" dT="2024-10-04T17:11:06.60" personId="{7B123914-AB1F-4D6A-8C86-BC6322CBBA20}" id="{52D79743-1A94-44FB-9C42-3A7A97FF2C44}">
+    <text>Grey: parameter provided in the macro-scenario imput file.
+Brown: Default model in the code (see parameter description)
+Yellow: not reliable value</text>
+  </threadedComment>
+  <threadedComment ref="C36" dT="2024-10-04T17:59:37.02" personId="{7B123914-AB1F-4D6A-8C86-BC6322CBBA20}" id="{94EA2262-7164-4A10-8920-15A8C06127BA}">
+    <text>kA in the Matpower documentation</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1144,25 +1547,25 @@
   <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="4"/>
+    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>12</v>
@@ -1171,13 +1574,13 @@
         <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1188,11 +1591,11 @@
         <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1200,16 +1603,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1219,14 +1622,14 @@
       <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>34</v>
+      <c r="D4" t="s">
+        <v>247</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
@@ -1236,14 +1639,14 @@
       <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>34</v>
+      <c r="D5" t="s">
+        <v>248</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -1254,13 +1657,13 @@
         <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
@@ -1271,13 +1674,13 @@
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E7" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1288,13 +1691,13 @@
         <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="E8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1305,30 +1708,30 @@
         <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>233</v>
       </c>
       <c r="E9" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
+      <c r="C10" t="s">
+        <v>148</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
@@ -1336,14 +1739,14 @@
         <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
@@ -1354,13 +1757,13 @@
         <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
@@ -1371,13 +1774,13 @@
         <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="E13" s="9">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>0</v>
       </c>
@@ -1388,1314 +1791,1292 @@
         <v>30</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>34</v>
+        <v>235</v>
       </c>
       <c r="E14" s="13">
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="E16" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" t="s">
-        <v>34</v>
+      <c r="D17" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="E17" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="E18" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="E20" s="17">
         <v>1.05</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="E21" s="17">
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="E22" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>34</v>
+        <v>262</v>
       </c>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>261</v>
       </c>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>263</v>
       </c>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>264</v>
       </c>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>265</v>
       </c>
       <c r="E27" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>266</v>
       </c>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>34</v>
+        <v>50</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="E31" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>34</v>
+        <v>148</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="E32" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="E33" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
+        <v>148</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="E34" s="17">
         <v>-60</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="19">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E35" s="17">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="16"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="E36" s="28"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="E37" s="15"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="E40" s="17">
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="20">
-        <v>3.9999999999999998E-6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+      <c r="E41" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+      <c r="E43" s="27"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+      <c r="E44" s="27"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="E45" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="E47" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="17">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+      <c r="E48" s="27"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="E49" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="E50" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="E51" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="E52" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="E55" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="D56" t="s">
-        <v>34</v>
+        <v>192</v>
       </c>
       <c r="E56" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="E57" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="E58" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>104</v>
+      </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="E59" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="E60" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" s="17">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+      <c r="E61" s="27"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="17">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="E62" s="27"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D63" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="E63" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" t="s">
-        <v>34</v>
+        <v>105</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="E64" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="E65" s="17">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D66" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="E66" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="17">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+      <c r="E67" s="27"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" s="17">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+      <c r="E68" s="27"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="C69" t="s">
+        <v>104</v>
+      </c>
       <c r="D69" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="E69" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D70" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" s="17">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+      <c r="E70" s="27"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="E71" s="17">
         <v>1.05</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="E72" s="17">
         <v>0.95</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" s="17">
+        <v>206</v>
+      </c>
+      <c r="E73" s="26">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D74" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="E74" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
       </c>
       <c r="D75" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="E75" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>32</v>
+        <v>90</v>
+      </c>
+      <c r="C76" t="s">
+        <v>31</v>
       </c>
       <c r="D76" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="E76" s="17">
-        <v>0.88700000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
+      </c>
+      <c r="C77" t="s">
+        <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="E77" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
+      </c>
+      <c r="C78" t="s">
+        <v>106</v>
       </c>
       <c r="D78" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="E78" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="D79" t="s">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="E79" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
       </c>
       <c r="D80" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="E80" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="E81" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C82" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="E82" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="E83" s="16"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="16"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="E84" s="27"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
       </c>
       <c r="D85" t="s">
-        <v>34</v>
-      </c>
-      <c r="E85" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+      <c r="E85" s="27"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C86" t="s">
         <v>29</v>
       </c>
       <c r="D86" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" s="17">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="E86" s="27"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C87" t="s">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="E87" s="16"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C88" t="s">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="D88" t="s">
-        <v>183</v>
-      </c>
-      <c r="E88" s="16"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+      <c r="E88" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C89" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D89" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="E89" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>34</v>
-      </c>
-      <c r="E90" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+      <c r="E90" s="27"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C91" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="E91" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C92" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D92" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="E92" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E93" s="15"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>6</v>
       </c>
@@ -2705,971 +3086,971 @@
       <c r="C94" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="14" t="s">
-        <v>34</v>
+      <c r="D94" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="E94" s="15"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
       </c>
       <c r="D95" t="s">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="E95" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="E96" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="E97" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
       </c>
       <c r="D98" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="E98" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C99" t="s">
-        <v>45</v>
-      </c>
-      <c r="D99" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="E99" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
-      </c>
-      <c r="C100" t="s">
-        <v>58</v>
-      </c>
-      <c r="D100" t="s">
-        <v>34</v>
+        <v>112</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="E100" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C101" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D101" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="E101" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
       </c>
       <c r="D102" t="s">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="E102" s="16"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="E103" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C104" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E104" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C105" t="s">
-        <v>127</v>
-      </c>
-      <c r="D105" t="s">
-        <v>34</v>
+        <v>122</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>281</v>
       </c>
       <c r="E105" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B106" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" t="s">
         <v>122</v>
       </c>
-      <c r="C106" t="s">
-        <v>127</v>
-      </c>
-      <c r="D106" t="s">
-        <v>34</v>
+      <c r="D106" s="23" t="s">
+        <v>282</v>
       </c>
       <c r="E106" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C107" t="s">
-        <v>126</v>
-      </c>
-      <c r="D107" t="s">
-        <v>34</v>
+        <v>121</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>283</v>
       </c>
       <c r="E107" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C108" t="s">
-        <v>128</v>
-      </c>
-      <c r="D108" t="s">
-        <v>34</v>
+        <v>123</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="E108" s="16"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C109" t="s">
-        <v>127</v>
-      </c>
-      <c r="D109" t="s">
-        <v>34</v>
+        <v>122</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>279</v>
       </c>
       <c r="E109" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="E110" s="15"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
       </c>
-      <c r="D111" t="s">
-        <v>34</v>
+      <c r="D111" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="E111" s="16"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="E112" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C113" t="s">
         <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="E113" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C114" t="s">
-        <v>44</v>
-      </c>
-      <c r="D114" t="s">
-        <v>34</v>
+        <v>104</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="E114" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
-      </c>
-      <c r="D115" t="s">
-        <v>34</v>
-      </c>
-      <c r="E115" s="16"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E115" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D116" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E116" s="21"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E116" s="20"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C117" t="s">
-        <v>44</v>
-      </c>
-      <c r="D117" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="E117" s="16"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C118" t="s">
+        <v>148</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="E118" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D118" t="s">
-        <v>34</v>
-      </c>
-      <c r="E118" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D119" t="s">
-        <v>155</v>
+        <v>173</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="E119" s="16"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D120" t="s">
-        <v>155</v>
+        <v>173</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="E120" s="16"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C121" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E121" s="17">
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C122" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E122" s="17">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D123" t="s">
-        <v>157</v>
+        <v>173</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E123" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D124" t="s">
-        <v>155</v>
+        <v>173</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="E124" s="16"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D125" t="s">
-        <v>157</v>
+        <v>173</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E125" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C126" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D126" t="s">
-        <v>34</v>
-      </c>
-      <c r="E126" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+      <c r="E126" s="16"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C127" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D127" t="s">
-        <v>34</v>
-      </c>
-      <c r="E127" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+      <c r="E127" s="16"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C128" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D128" t="s">
-        <v>34</v>
-      </c>
-      <c r="E128" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+      <c r="E128" s="16"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>149</v>
-      </c>
-      <c r="C129" t="s">
-        <v>127</v>
-      </c>
-      <c r="D129" t="s">
-        <v>34</v>
-      </c>
-      <c r="E129" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D129" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="E129" s="26">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C130" t="s">
-        <v>108</v>
-      </c>
-      <c r="D130" t="s">
-        <v>34</v>
+        <v>104</v>
+      </c>
+      <c r="D130" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="E130" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>151</v>
-      </c>
-      <c r="C131" t="s">
-        <v>127</v>
-      </c>
-      <c r="D131" t="s">
-        <v>34</v>
+        <v>146</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>152</v>
-      </c>
-      <c r="C132" t="s">
-        <v>109</v>
-      </c>
-      <c r="D132" t="s">
-        <v>34</v>
+        <v>147</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="E132" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C133" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="E133" s="15"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
       </c>
       <c r="D134" t="s">
-        <v>34</v>
+        <v>247</v>
       </c>
       <c r="E134" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>34</v>
+        <v>248</v>
       </c>
       <c r="E135" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C136" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D136" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="E136" s="16"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C137" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D137" t="s">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="E137" s="16"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
       </c>
       <c r="D138" t="s">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="E138" s="16"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
       </c>
       <c r="D139" t="s">
-        <v>34</v>
+        <v>252</v>
       </c>
       <c r="E139" s="16"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C140" t="s">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="D140" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="E140" s="16"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C141" t="s">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="D141" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="E141" s="16"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
       </c>
       <c r="D142" t="s">
-        <v>34</v>
+        <v>255</v>
       </c>
       <c r="E142" s="16"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
       </c>
       <c r="D143" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="E143" s="17">
         <v>-1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
       </c>
       <c r="D144" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="E144" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C145" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D145" t="s">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="E145" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C146" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D146" t="s">
-        <v>34</v>
+        <v>257</v>
       </c>
       <c r="E146" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>173</v>
-      </c>
-      <c r="C147" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
       <c r="D147" t="s">
-        <v>34</v>
+        <v>258</v>
       </c>
       <c r="E147" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>174</v>
-      </c>
-      <c r="C148" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="C148" t="s">
+        <v>29</v>
+      </c>
       <c r="D148" t="s">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c r="E148" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="E149" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>176</v>
-      </c>
-      <c r="C150" t="s">
-        <v>175</v>
-      </c>
-      <c r="D150" t="s">
-        <v>34</v>
+        <v>167</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D150" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="E150" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>177</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
+      </c>
+      <c r="C151" t="s">
+        <v>30</v>
       </c>
       <c r="D151" t="s">
-        <v>34</v>
+        <v>269</v>
       </c>
       <c r="E151" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>178</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="C152" t="s">
+        <v>30</v>
       </c>
       <c r="D152" t="s">
-        <v>34</v>
+        <v>270</v>
       </c>
       <c r="E152" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C153" s="18" t="s">
-        <v>44</v>
+        <v>170</v>
+      </c>
+      <c r="C153" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E153" s="22"/>
+        <v>268</v>
+      </c>
+      <c r="E153" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{25DAD3AE-00FB-4ED3-A59C-462A1116217B}"/>
@@ -3679,6 +4060,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xsi:nil="true"/>
+    <TaxCatchAll xmlns="e2fe3da4-e7b1-4e71-a513-56b717f56f6b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100360305CF8A5F8A4B86568FB88F41EB51" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="7820bdd98b12bbce6701f392baa49827">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xmlns:ns3="e2fe3da4-e7b1-4e71-a513-56b717f56f6b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a7208ee71179b2cd86960a83168177e" ns2:_="" ns3:_="">
     <xsd:import namespace="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576"/>
@@ -3919,18 +4312,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xsi:nil="true"/>
-    <TaxCatchAll xmlns="e2fe3da4-e7b1-4e71-a513-56b717f56f6b" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3941,6 +4322,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C116F8E2-4DBC-4DB4-825C-1F8126BA2EE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576"/>
+    <ds:schemaRef ds:uri="e2fe3da4-e7b1-4e71-a513-56b717f56f6b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFB0FD70-63EF-4D48-A8C4-DFC9646D4D60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3959,17 +4351,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C116F8E2-4DBC-4DB4-825C-1F8126BA2EE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576"/>
-    <ds:schemaRef ds:uri="e2fe3da4-e7b1-4e71-a513-56b717f56f6b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD1144D-069D-4B6F-AEE5-711B319AB663}">
   <ds:schemaRefs>

--- a/templates/default_values.xlsx
+++ b/templates/default_values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.barla\Documents\Local_codes\HVDCWISE_TEA.jl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349AA2F7-5377-45D1-8576-83785449E661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523538AE-5873-452C-A588-90A96BE6E694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="16" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="294">
   <si>
     <t>bus</t>
   </si>
@@ -516,9 +516,6 @@
     <t>cost_red</t>
   </si>
   <si>
-    <t xml:space="preserve">cost_curt </t>
-  </si>
-  <si>
     <t>cost_inv</t>
   </si>
   <si>
@@ -544,12 +541,6 @@
   </si>
   <si>
     <t>With base energy = annual load</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      0.0</t>
   </si>
   <si>
     <t>storage_bus</t>
@@ -982,19 +973,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1547,10 +1532,10 @@
   <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1550,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>12</v>
@@ -1577,7 +1562,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1591,7 +1576,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -1603,7 +1588,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>33</v>
@@ -1623,7 +1608,7 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
@@ -1640,7 +1625,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
@@ -1657,7 +1642,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
@@ -1674,7 +1659,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E7" s="9">
         <v>0</v>
@@ -1691,7 +1676,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E8" s="9">
         <v>1</v>
@@ -1708,7 +1693,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E9" s="9">
         <v>1</v>
@@ -1722,10 +1707,10 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
@@ -1742,7 +1727,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -1757,7 +1742,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
@@ -1774,7 +1759,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E13" s="9">
         <v>1.1000000000000001</v>
@@ -1791,7 +1776,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E14" s="13">
         <v>0.9</v>
@@ -1808,7 +1793,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E15" s="16"/>
     </row>
@@ -1823,7 +1808,7 @@
         <v>42</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E16" s="17">
         <v>1</v>
@@ -1840,7 +1825,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E17" s="17">
         <v>0</v>
@@ -1857,7 +1842,7 @@
         <v>30</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E18" s="17">
         <v>1</v>
@@ -1874,7 +1859,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E19" s="16"/>
     </row>
@@ -1889,7 +1874,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E20" s="17">
         <v>1.05</v>
@@ -1906,7 +1891,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E21" s="17">
         <v>0.95</v>
@@ -1923,7 +1908,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E22" s="17">
         <v>0</v>
@@ -1940,7 +1925,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E23" s="15"/>
     </row>
@@ -1955,7 +1940,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E24" s="16"/>
     </row>
@@ -1970,7 +1955,7 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E25" s="16"/>
     </row>
@@ -1985,7 +1970,7 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E26" s="16"/>
     </row>
@@ -2000,7 +1985,7 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E27" s="17">
         <v>0</v>
@@ -2017,7 +2002,7 @@
         <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E28" s="16"/>
     </row>
@@ -2032,7 +2017,7 @@
         <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E29" s="27"/>
     </row>
@@ -2047,7 +2032,7 @@
         <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E30" s="27"/>
     </row>
@@ -2062,7 +2047,7 @@
         <v>42</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E31" s="17">
         <v>0</v>
@@ -2076,10 +2061,10 @@
         <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E32" s="17">
         <v>0</v>
@@ -2096,7 +2081,7 @@
         <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E33" s="17">
         <v>1</v>
@@ -2110,10 +2095,10 @@
         <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E34" s="17">
         <v>-60</v>
@@ -2127,10 +2112,10 @@
         <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E35" s="17">
         <v>60</v>
@@ -2144,10 +2129,10 @@
         <v>56</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E36" s="28"/>
     </row>
@@ -2162,7 +2147,7 @@
         <v>27</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -2177,7 +2162,7 @@
         <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E38" s="16"/>
     </row>
@@ -2192,7 +2177,7 @@
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E39" s="16"/>
     </row>
@@ -2204,10 +2189,10 @@
         <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D40" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E40" s="17">
         <v>0</v>
@@ -2221,10 +2206,10 @@
         <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D41" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E41" s="17">
         <v>0</v>
@@ -2241,7 +2226,7 @@
         <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E42" s="16"/>
     </row>
@@ -2256,7 +2241,7 @@
         <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E43" s="27"/>
     </row>
@@ -2271,7 +2256,7 @@
         <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E44" s="27"/>
     </row>
@@ -2286,7 +2271,7 @@
         <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E45" s="17">
         <v>1</v>
@@ -2300,10 +2285,10 @@
         <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D46" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E46" s="16"/>
     </row>
@@ -2318,7 +2303,7 @@
         <v>121</v>
       </c>
       <c r="D47" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E47" s="17">
         <v>2</v>
@@ -2335,7 +2320,7 @@
         <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E48" s="27"/>
     </row>
@@ -2347,10 +2332,10 @@
         <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D49" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E49" s="17">
         <v>0</v>
@@ -2367,7 +2352,7 @@
         <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E50" s="17">
         <v>1</v>
@@ -2384,7 +2369,7 @@
         <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E51" s="17">
         <v>1</v>
@@ -2401,7 +2386,7 @@
         <v>104</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E52" s="19">
         <v>1</v>
@@ -2418,7 +2403,7 @@
         <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E53" s="16"/>
     </row>
@@ -2433,7 +2418,7 @@
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E54" s="16"/>
     </row>
@@ -2445,10 +2430,10 @@
         <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E55" s="17">
         <v>1</v>
@@ -2462,10 +2447,10 @@
         <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D56" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E56" s="17">
         <v>1</v>
@@ -2482,7 +2467,7 @@
         <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E57" s="17">
         <v>0</v>
@@ -2499,7 +2484,7 @@
         <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E58" s="17">
         <v>0</v>
@@ -2516,7 +2501,7 @@
         <v>104</v>
       </c>
       <c r="D59" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E59" s="17">
         <v>0</v>
@@ -2533,7 +2518,7 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E60" s="17">
         <v>1</v>
@@ -2550,7 +2535,7 @@
         <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E61" s="27"/>
     </row>
@@ -2565,7 +2550,7 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E62" s="27"/>
     </row>
@@ -2580,7 +2565,7 @@
         <v>104</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E63" s="17">
         <v>1</v>
@@ -2597,7 +2582,7 @@
         <v>105</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E64" s="17">
         <v>1</v>
@@ -2614,7 +2599,7 @@
         <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E65" s="17">
         <v>0</v>
@@ -2631,7 +2616,7 @@
         <v>104</v>
       </c>
       <c r="D66" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E66" s="17">
         <v>0</v>
@@ -2648,7 +2633,7 @@
         <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E67" s="27"/>
     </row>
@@ -2663,7 +2648,7 @@
         <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E68" s="27"/>
     </row>
@@ -2678,7 +2663,7 @@
         <v>104</v>
       </c>
       <c r="D69" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E69" s="17">
         <v>0</v>
@@ -2695,7 +2680,7 @@
         <v>31</v>
       </c>
       <c r="D70" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E70" s="27"/>
     </row>
@@ -2710,7 +2695,7 @@
         <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E71" s="17">
         <v>1.05</v>
@@ -2727,7 +2712,7 @@
         <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E72" s="17">
         <v>0.95</v>
@@ -2744,7 +2729,7 @@
         <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E73" s="26">
         <v>1.1000000000000001</v>
@@ -2761,7 +2746,7 @@
         <v>104</v>
       </c>
       <c r="D74" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E74" s="17">
         <v>1</v>
@@ -2778,7 +2763,7 @@
         <v>28</v>
       </c>
       <c r="D75" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E75" s="17">
         <v>0</v>
@@ -2795,7 +2780,7 @@
         <v>31</v>
       </c>
       <c r="D76" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E76" s="17">
         <v>0</v>
@@ -2812,7 +2797,7 @@
         <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E77" s="17">
         <v>0</v>
@@ -2829,7 +2814,7 @@
         <v>106</v>
       </c>
       <c r="D78" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E78" s="17">
         <v>0</v>
@@ -2843,10 +2828,10 @@
         <v>93</v>
       </c>
       <c r="C79" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D79" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E79" s="17">
         <v>5.0000000000000001E-3</v>
@@ -2863,7 +2848,7 @@
         <v>28</v>
       </c>
       <c r="D80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E80" s="17">
         <v>0</v>
@@ -2880,7 +2865,7 @@
         <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E81" s="17">
         <v>1</v>
@@ -2897,7 +2882,7 @@
         <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E82" s="17">
         <v>0</v>
@@ -2914,7 +2899,7 @@
         <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E83" s="16"/>
     </row>
@@ -2929,7 +2914,7 @@
         <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E84" s="27"/>
     </row>
@@ -2944,7 +2929,7 @@
         <v>29</v>
       </c>
       <c r="D85" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E85" s="27"/>
     </row>
@@ -2959,7 +2944,7 @@
         <v>29</v>
       </c>
       <c r="D86" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E86" s="27"/>
     </row>
@@ -2971,10 +2956,10 @@
         <v>101</v>
       </c>
       <c r="C87" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D87" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E87" s="16"/>
     </row>
@@ -2986,10 +2971,10 @@
         <v>65</v>
       </c>
       <c r="C88" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D88" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E88" s="17">
         <v>0</v>
@@ -3006,7 +2991,7 @@
         <v>104</v>
       </c>
       <c r="D89" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E89" s="17">
         <v>0</v>
@@ -3023,7 +3008,7 @@
         <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E90" s="27"/>
     </row>
@@ -3038,7 +3023,7 @@
         <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E91" s="17">
         <v>1</v>
@@ -3055,7 +3040,7 @@
         <v>104</v>
       </c>
       <c r="D92" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E92" s="17">
         <v>1</v>
@@ -3063,16 +3048,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" s="14" t="s">
         <v>177</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>180</v>
       </c>
       <c r="E93" s="15"/>
     </row>
@@ -3087,7 +3072,7 @@
         <v>27</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E94" s="15"/>
     </row>
@@ -3102,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="D95" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E95" s="17">
         <v>0</v>
@@ -3119,7 +3104,7 @@
         <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E96" s="17">
         <v>0</v>
@@ -3136,7 +3121,7 @@
         <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E97" s="17">
         <v>0</v>
@@ -3153,7 +3138,7 @@
         <v>29</v>
       </c>
       <c r="D98" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E98" s="17">
         <v>0</v>
@@ -3170,7 +3155,7 @@
         <v>30</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E99" s="17">
         <v>0</v>
@@ -3187,7 +3172,7 @@
         <v>55</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E100" s="17">
         <v>0</v>
@@ -3204,7 +3189,7 @@
         <v>104</v>
       </c>
       <c r="D101" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E101" s="17">
         <v>1</v>
@@ -3221,7 +3206,7 @@
         <v>28</v>
       </c>
       <c r="D102" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E102" s="16"/>
     </row>
@@ -3236,7 +3221,7 @@
         <v>28</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E103" s="19">
         <v>0</v>
@@ -3270,7 +3255,7 @@
         <v>122</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E105" s="17">
         <v>0</v>
@@ -3287,7 +3272,7 @@
         <v>122</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E106" s="17">
         <v>0</v>
@@ -3304,7 +3289,7 @@
         <v>121</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E107" s="17">
         <v>2</v>
@@ -3321,7 +3306,7 @@
         <v>123</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E108" s="16"/>
     </row>
@@ -3336,7 +3321,7 @@
         <v>122</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E109" s="17">
         <v>0</v>
@@ -3353,7 +3338,7 @@
         <v>27</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E110" s="15"/>
     </row>
@@ -3368,7 +3353,7 @@
         <v>28</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E111" s="16"/>
     </row>
@@ -3383,7 +3368,7 @@
         <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E112" s="17">
         <v>0</v>
@@ -3400,7 +3385,7 @@
         <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E113" s="17">
         <v>0</v>
@@ -3417,7 +3402,7 @@
         <v>104</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E114" s="17">
         <v>1</v>
@@ -3434,7 +3419,7 @@
         <v>123</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E115" s="17">
         <v>0</v>
@@ -3451,7 +3436,7 @@
         <v>123</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E116" s="20"/>
     </row>
@@ -3466,7 +3451,7 @@
         <v>27</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E117" s="16"/>
     </row>
@@ -3478,13 +3463,13 @@
         <v>133</v>
       </c>
       <c r="C118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="E118" s="17" t="s">
-        <v>153</v>
+        <v>268</v>
+      </c>
+      <c r="E118" s="17">
+        <v>0.19739999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3495,10 +3480,10 @@
         <v>134</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E119" s="16"/>
     </row>
@@ -3510,10 +3495,10 @@
         <v>135</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E120" s="16"/>
     </row>
@@ -3525,10 +3510,10 @@
         <v>136</v>
       </c>
       <c r="C121" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E121" s="17">
         <v>4</v>
@@ -3542,10 +3527,10 @@
         <v>137</v>
       </c>
       <c r="C122" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E122" s="17">
         <v>4</v>
@@ -3559,10 +3544,10 @@
         <v>138</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E123" s="17">
         <v>0</v>
@@ -3576,10 +3561,10 @@
         <v>139</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E124" s="16"/>
     </row>
@@ -3591,10 +3576,10 @@
         <v>140</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E125" s="17">
         <v>0</v>
@@ -3611,7 +3596,7 @@
         <v>123</v>
       </c>
       <c r="D126" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E126" s="16"/>
     </row>
@@ -3626,7 +3611,7 @@
         <v>123</v>
       </c>
       <c r="D127" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E127" s="16"/>
     </row>
@@ -3635,13 +3620,13 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
         <v>123</v>
       </c>
       <c r="D128" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E128" s="16"/>
     </row>
@@ -3650,13 +3635,13 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E129" s="26">
         <v>100000</v>
@@ -3667,33 +3652,31 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C130" t="s">
         <v>104</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="E130" s="17">
-        <v>1</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="E130" s="16"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="E131" s="17" t="s">
-        <v>154</v>
+        <v>268</v>
+      </c>
+      <c r="E131" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3701,13 +3684,13 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E132" s="17">
         <v>10</v>
@@ -3718,13 +3701,13 @@
         <v>10</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C133" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E133" s="15"/>
     </row>
@@ -3733,13 +3716,13 @@
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
       </c>
       <c r="D134" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E134" s="17">
         <v>0</v>
@@ -3750,13 +3733,13 @@
         <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E135" s="17">
         <v>0</v>
@@ -3767,13 +3750,13 @@
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C136" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D136" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E136" s="16"/>
     </row>
@@ -3782,13 +3765,13 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C137" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D137" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E137" s="16"/>
     </row>
@@ -3797,13 +3780,13 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
       </c>
       <c r="D138" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E138" s="16"/>
     </row>
@@ -3812,13 +3795,13 @@
         <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
       </c>
       <c r="D139" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E139" s="16"/>
     </row>
@@ -3827,13 +3810,13 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C140" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D140" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E140" s="16"/>
     </row>
@@ -3842,13 +3825,13 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C141" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D141" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E141" s="16"/>
     </row>
@@ -3857,13 +3840,13 @@
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
       </c>
       <c r="D142" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E142" s="16"/>
     </row>
@@ -3878,7 +3861,7 @@
         <v>29</v>
       </c>
       <c r="D143" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E143" s="17">
         <v>-1</v>
@@ -3895,7 +3878,7 @@
         <v>29</v>
       </c>
       <c r="D144" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E144" s="17">
         <v>1</v>
@@ -3912,7 +3895,7 @@
         <v>30</v>
       </c>
       <c r="D145" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E145" s="17">
         <v>0</v>
@@ -3929,7 +3912,7 @@
         <v>30</v>
       </c>
       <c r="D146" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E146" s="17">
         <v>0</v>
@@ -3940,13 +3923,13 @@
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
       </c>
       <c r="D147" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E147" s="17">
         <v>0</v>
@@ -3957,13 +3940,13 @@
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
       </c>
       <c r="D148" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E148" s="17">
         <v>0</v>
@@ -3980,7 +3963,7 @@
         <v>104</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E149" s="19">
         <v>1</v>
@@ -3991,13 +3974,13 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D150" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E150" s="17">
         <v>0</v>
@@ -4008,13 +3991,13 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C151" t="s">
         <v>30</v>
       </c>
       <c r="D151" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E151" s="17">
         <v>0</v>
@@ -4025,13 +4008,13 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C152" t="s">
         <v>30</v>
       </c>
       <c r="D152" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E152" s="17">
         <v>0</v>
@@ -4042,13 +4025,13 @@
         <v>11</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C153" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E153" s="21"/>
     </row>
@@ -4060,18 +4043,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xsi:nil="true"/>
-    <TaxCatchAll xmlns="e2fe3da4-e7b1-4e71-a513-56b717f56f6b" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100360305CF8A5F8A4B86568FB88F41EB51" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="7820bdd98b12bbce6701f392baa49827">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xmlns:ns3="e2fe3da4-e7b1-4e71-a513-56b717f56f6b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a7208ee71179b2cd86960a83168177e" ns2:_="" ns3:_="">
     <xsd:import namespace="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576"/>
@@ -4312,6 +4283,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xsi:nil="true"/>
+    <TaxCatchAll xmlns="e2fe3da4-e7b1-4e71-a513-56b717f56f6b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4322,17 +4305,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C116F8E2-4DBC-4DB4-825C-1F8126BA2EE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576"/>
-    <ds:schemaRef ds:uri="e2fe3da4-e7b1-4e71-a513-56b717f56f6b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFB0FD70-63EF-4D48-A8C4-DFC9646D4D60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4351,6 +4323,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C116F8E2-4DBC-4DB4-825C-1F8126BA2EE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576"/>
+    <ds:schemaRef ds:uri="e2fe3da4-e7b1-4e71-a513-56b717f56f6b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD1144D-069D-4B6F-AEE5-711B319AB663}">
   <ds:schemaRefs>
